--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3924.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3924.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3924</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Trent Alexander Boult</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3427</t>
+          <t>3427</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3429</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3430</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +713,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>04/11/2012</t>
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3446</t>
+          <t>3446</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -696,7 +760,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>06/11/2012</t>
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3447</t>
+          <t>3447</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -744,7 +807,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>10/11/2012</t>
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3448</t>
+          <t>3448</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -792,7 +854,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>12/11/2012</t>
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3449</t>
+          <t>3449</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3477</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3685</t>
+          <t>3685</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -956,7 +1017,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3686</t>
+          <t>3686</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -996,7 +1057,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>11/01/2015</t>
@@ -1004,7 +1064,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3723</t>
+          <t>3723</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1056,7 +1116,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3726</t>
+          <t>3726</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1096,7 +1156,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>23/01/2015</t>
@@ -1104,7 +1163,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3737</t>
+          <t>3737</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1144,7 +1203,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>25/01/2015</t>
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3739</t>
+          <t>3739</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1192,7 +1250,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>31/01/2015</t>
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3745</t>
+          <t>3745</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1240,7 +1297,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>03/02/2015</t>
@@ -1248,7 +1304,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3747</t>
+          <t>3747</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1288,7 +1344,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>14/02/2015</t>
@@ -1296,7 +1351,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3748</t>
+          <t>3748</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1336,7 +1391,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>17/02/2015</t>
@@ -1344,7 +1398,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3753</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1384,7 +1438,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>20/02/2015</t>
@@ -1392,7 +1445,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3756</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1444,7 +1497,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3767</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1484,7 +1537,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>08/03/2015</t>
@@ -1492,7 +1544,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3778</t>
+          <t>3778</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1532,7 +1584,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>13/03/2015</t>
@@ -1540,7 +1591,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3784</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1580,7 +1631,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>21/03/2015</t>
@@ -1588,7 +1638,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3793</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1628,7 +1678,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>24/03/2015</t>
@@ -1636,7 +1685,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3794</t>
+          <t>3794</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1688,7 +1737,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3796</t>
+          <t>3796</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1740,7 +1789,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3804</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1780,7 +1829,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>12/06/2015</t>
@@ -1788,7 +1836,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1828,7 +1876,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>05/01/2016</t>
@@ -1836,7 +1883,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1888,7 +1935,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1928,7 +1975,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>31/01/2016</t>
@@ -1936,7 +1982,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1976,7 +2022,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>03/02/2016</t>
@@ -1984,7 +2029,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3884</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2036,7 +2081,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2088,7 +2133,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2140,7 +2185,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2180,7 +2225,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>26/10/2016</t>
@@ -2188,7 +2232,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2240,7 +2284,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2292,7 +2336,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2344,7 +2388,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2396,7 +2440,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2436,7 +2480,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>26/12/2016</t>
@@ -2444,7 +2487,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2496,7 +2539,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2548,7 +2591,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2600,7 +2643,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2640,7 +2683,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>19/02/2017</t>
@@ -2648,7 +2690,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3992</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2688,7 +2730,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>22/02/2017</t>
@@ -2696,7 +2737,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2748,7 +2789,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2788,7 +2829,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>01/03/2017</t>
@@ -2796,7 +2836,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2848,7 +2888,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2900,7 +2940,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2952,7 +2992,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2992,7 +3032,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>09/06/2017</t>
@@ -3000,7 +3039,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3040,7 +3079,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>22/10/2017</t>
@@ -3048,7 +3086,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3100,7 +3138,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3140,7 +3178,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>29/10/2017</t>
@@ -3148,7 +3185,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3188,7 +3225,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>20/12/2017</t>
@@ -3196,7 +3232,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3236,7 +3272,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>23/12/2017</t>
@@ -3244,7 +3279,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3284,7 +3319,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>26/12/2017</t>
@@ -3292,7 +3326,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4102</t>
+          <t>4102</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3332,7 +3366,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>06/01/2018</t>
@@ -3340,7 +3373,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3380,7 +3413,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>08/01/2018</t>
@@ -3388,7 +3420,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3440,7 +3472,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3480,7 +3512,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>16/01/2018</t>
@@ -3488,7 +3519,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3528,7 +3559,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>25/02/2018</t>
@@ -3536,7 +3566,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3588,7 +3618,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3628,7 +3658,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>03/03/2018</t>
@@ -3636,7 +3665,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3676,7 +3705,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>06/03/2018</t>
@@ -3684,7 +3712,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3736,7 +3764,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3788,7 +3816,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3840,7 +3868,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3880,7 +3908,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -3888,7 +3915,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3928,7 +3955,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>03/01/2019</t>
@@ -3936,7 +3962,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3976,7 +4002,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>05/01/2019</t>
@@ -3984,7 +4009,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4036,7 +4061,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4088,7 +4113,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4140,7 +4165,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4180,7 +4205,6 @@
           <t>75</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>31/01/2019</t>
@@ -4188,7 +4212,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4240,7 +4264,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4280,7 +4304,6 @@
           <t>77</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>13/02/2019</t>
@@ -4288,7 +4311,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4328,7 +4351,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>16/02/2019</t>
@@ -4336,7 +4358,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4376,7 +4398,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>20/02/2019</t>
@@ -4384,7 +4405,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4424,7 +4445,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -4432,7 +4452,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4472,7 +4492,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>05/06/2019</t>
@@ -4480,7 +4499,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4520,7 +4539,6 @@
           <t>82</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -4528,7 +4546,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4568,7 +4586,6 @@
           <t>83</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>19/06/2019</t>
@@ -4576,7 +4593,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4328</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4616,7 +4633,6 @@
           <t>84</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>22/06/2019</t>
@@ -4624,7 +4640,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4664,7 +4680,6 @@
           <t>85</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>26/06/2019</t>
@@ -4672,7 +4687,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4724,7 +4739,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4776,7 +4791,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4828,7 +4843,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4880,7 +4895,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4932,7 +4947,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4972,7 +4987,6 @@
           <t>91</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>20/03/2021</t>
@@ -4980,7 +4994,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5020,7 +5034,6 @@
           <t>92</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>23/03/2021</t>
@@ -5028,7 +5041,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5068,7 +5081,6 @@
           <t>93</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>26/03/2021</t>
@@ -5076,7 +5088,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5128,7 +5140,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4636</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5180,7 +5192,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4639</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5220,7 +5232,6 @@
           <t>96</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>21/08/2022</t>
@@ -5228,7 +5239,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5280,7 +5291,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5332,7 +5343,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5384,7 +5395,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5423,7 +5434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5445,7 +5456,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -5482,7 +5493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3427</t>
+          <t>3427</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5519,7 +5530,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3429</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5556,7 +5567,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3430</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5593,7 +5604,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3446</t>
+          <t>3446</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5630,7 +5641,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3447</t>
+          <t>3447</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5667,7 +5678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3448</t>
+          <t>3448</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5704,7 +5715,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3449</t>
+          <t>3449</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5741,7 +5752,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3477</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5778,7 +5789,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3685</t>
+          <t>3685</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5815,7 +5826,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3686</t>
+          <t>3686</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5852,7 +5863,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3723</t>
+          <t>3723</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5889,7 +5900,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3726</t>
+          <t>3726</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5926,7 +5937,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3737</t>
+          <t>3737</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5963,7 +5974,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3739</t>
+          <t>3739</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -6000,7 +6011,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3745</t>
+          <t>3745</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -6037,7 +6048,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3747</t>
+          <t>3747</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -6074,7 +6085,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3748</t>
+          <t>3748</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -6111,7 +6122,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3753</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6148,7 +6159,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3756</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6185,7 +6196,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3767</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6222,7 +6233,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3778</t>
+          <t>3778</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6259,7 +6270,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3784</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6296,7 +6307,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3793</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6333,7 +6344,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3794</t>
+          <t>3794</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6370,7 +6381,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3796</t>
+          <t>3796</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6407,7 +6418,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3804</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6444,7 +6455,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6481,7 +6492,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6518,7 +6529,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6555,7 +6566,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6592,7 +6603,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3884</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6629,7 +6640,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6666,7 +6677,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6703,7 +6714,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6740,7 +6751,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6777,7 +6788,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6814,7 +6825,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6851,7 +6862,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -6888,7 +6899,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -6925,7 +6936,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6962,7 +6973,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6999,7 +7010,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -7036,7 +7047,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -7073,7 +7084,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3992</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -7110,7 +7121,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -7147,7 +7158,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -7184,7 +7195,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -7221,7 +7232,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -7258,7 +7269,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -7295,7 +7306,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -7332,7 +7343,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -7369,7 +7380,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -7406,7 +7417,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -7443,7 +7454,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -7480,7 +7491,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -7517,7 +7528,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -7554,7 +7565,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4102</t>
+          <t>4102</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7591,7 +7602,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7628,7 +7639,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7665,7 +7676,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7702,7 +7713,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7739,7 +7750,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7776,7 +7787,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7813,7 +7824,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7850,7 +7861,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7887,7 +7898,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7924,7 +7935,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7961,7 +7972,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7998,7 +8009,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8035,7 +8046,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8072,7 +8083,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -8109,7 +8120,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8146,7 +8157,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8183,7 +8194,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8220,7 +8231,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -8257,7 +8268,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8294,7 +8305,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -8331,7 +8342,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -8368,7 +8379,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -8405,7 +8416,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -8442,7 +8453,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -8479,7 +8490,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -8516,7 +8527,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4328</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -8553,7 +8564,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -8590,7 +8601,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -8627,7 +8638,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -8664,7 +8675,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -8701,7 +8712,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -8738,7 +8749,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -8775,7 +8786,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -8812,7 +8823,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -8849,7 +8860,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -8886,7 +8897,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -8923,7 +8934,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4636</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -8960,7 +8971,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4639</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -8997,7 +9008,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -9034,7 +9045,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -9071,7 +9082,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -9108,7 +9119,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -9136,6 +9147,371 @@
           <t>2/25</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4311</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7.55%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4452</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4453</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3924.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3924.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9205,10 +9206,6 @@
           <t>4305</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9221,15 +9218,283 @@
           <t>4311</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7.55%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4452</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4453</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4311</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9237,15 +9502,12 @@
           <t>4315</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9255,13 +9517,6 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9271,13 +9526,6 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9287,13 +9535,6 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9301,15 +9542,14 @@
           <t>4341</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>11</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -9319,29 +9559,8 @@
           <t>4346</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.53%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9349,29 +9568,8 @@
           <t>4353</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>7.55%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9381,13 +9579,6 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9395,15 +9586,12 @@
           <t>4423</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9411,11 +9599,16 @@
           <t>4452</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9423,11 +9616,16 @@
           <t>4453</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9435,11 +9633,12 @@
           <t>4455</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9447,11 +9646,16 @@
           <t>4636</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9459,11 +9663,16 @@
           <t>4639</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9473,9 +9682,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9485,9 +9691,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9495,11 +9698,16 @@
           <t>4648</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9507,11 +9715,16 @@
           <t>4649</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3924.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3924.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -867,7 +866,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -9206,6 +9205,10 @@
           <t>4305</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9218,6 +9221,10 @@
           <t>4311</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9230,6 +9237,10 @@
           <t>4315</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9242,6 +9253,10 @@
           <t>4328</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9254,6 +9269,10 @@
           <t>4333</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9266,6 +9285,10 @@
           <t>4337</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9281,6 +9304,9 @@
       <c r="B8" t="n">
         <v>11</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9353,6 +9379,10 @@
           <t>4355</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9365,6 +9395,10 @@
           <t>4423</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9377,6 +9411,11 @@
           <t>4452</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9384,6 +9423,11 @@
           <t>4453</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9391,6 +9435,11 @@
           <t>4455</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9398,6 +9447,11 @@
           <t>4636</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9405,6 +9459,11 @@
           <t>4639</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9412,6 +9471,11 @@
           <t>4642</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9419,6 +9483,11 @@
           <t>4647</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9426,6 +9495,11 @@
           <t>4648</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9433,298 +9507,11 @@
           <t>4649</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4305</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4311</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4315</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4328</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4333</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4341</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4353</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4423</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4452</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4453</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4455</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4639</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3924.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3924.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -713,6 +712,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>04/11/2012</t>
@@ -760,6 +760,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>06/11/2012</t>
@@ -807,6 +808,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>10/11/2012</t>
@@ -854,6 +856,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>12/11/2012</t>
@@ -1057,6 +1060,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>11/01/2015</t>
@@ -1156,6 +1160,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>23/01/2015</t>
@@ -1203,6 +1208,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>25/01/2015</t>
@@ -1250,6 +1256,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>31/01/2015</t>
@@ -1297,6 +1304,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>03/02/2015</t>
@@ -1344,6 +1352,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>14/02/2015</t>
@@ -1391,6 +1400,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>17/02/2015</t>
@@ -1438,6 +1448,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>20/02/2015</t>
@@ -1537,6 +1548,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>08/03/2015</t>
@@ -1584,6 +1596,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>13/03/2015</t>
@@ -1631,6 +1644,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>21/03/2015</t>
@@ -1678,6 +1692,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>24/03/2015</t>
@@ -1829,6 +1844,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>12/06/2015</t>
@@ -1876,6 +1892,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>05/01/2016</t>
@@ -1975,6 +1992,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>31/01/2016</t>
@@ -2022,6 +2040,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>03/02/2016</t>
@@ -2225,6 +2244,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>26/10/2016</t>
@@ -2480,6 +2500,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>26/12/2016</t>
@@ -2683,6 +2704,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>19/02/2017</t>
@@ -2730,6 +2752,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>22/02/2017</t>
@@ -2829,6 +2852,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>01/03/2017</t>
@@ -3032,6 +3056,7 @@
           <t>51</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>09/06/2017</t>
@@ -3079,6 +3104,7 @@
           <t>52</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>22/10/2017</t>
@@ -3178,6 +3204,7 @@
           <t>54</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>29/10/2017</t>
@@ -3225,6 +3252,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>20/12/2017</t>
@@ -3272,6 +3300,7 @@
           <t>56</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>23/12/2017</t>
@@ -3319,6 +3348,7 @@
           <t>57</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>26/12/2017</t>
@@ -3366,6 +3396,7 @@
           <t>58</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>06/01/2018</t>
@@ -3413,6 +3444,7 @@
           <t>59</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>08/01/2018</t>
@@ -3512,6 +3544,7 @@
           <t>61</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>16/01/2018</t>
@@ -3559,6 +3592,7 @@
           <t>62</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>25/02/2018</t>
@@ -3658,6 +3692,7 @@
           <t>64</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>03/03/2018</t>
@@ -3705,6 +3740,7 @@
           <t>65</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>06/03/2018</t>
@@ -3908,6 +3944,7 @@
           <t>69</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -3955,6 +3992,7 @@
           <t>70</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>03/01/2019</t>
@@ -4002,6 +4040,7 @@
           <t>71</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>05/01/2019</t>
@@ -4205,6 +4244,7 @@
           <t>75</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>31/01/2019</t>
@@ -4304,6 +4344,7 @@
           <t>77</t>
         </is>
       </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>13/02/2019</t>
@@ -4351,6 +4392,7 @@
           <t>78</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>16/02/2019</t>
@@ -4398,6 +4440,7 @@
           <t>79</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>20/02/2019</t>
@@ -4445,6 +4488,7 @@
           <t>80</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -4492,6 +4536,7 @@
           <t>81</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>05/06/2019</t>
@@ -4539,6 +4584,7 @@
           <t>82</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -4586,6 +4632,7 @@
           <t>83</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>19/06/2019</t>
@@ -4633,6 +4680,7 @@
           <t>84</t>
         </is>
       </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>22/06/2019</t>
@@ -4680,6 +4728,7 @@
           <t>85</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>26/06/2019</t>
@@ -4987,6 +5036,7 @@
           <t>91</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>20/03/2021</t>
@@ -5034,6 +5084,7 @@
           <t>92</t>
         </is>
       </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>23/03/2021</t>
@@ -5081,6 +5132,7 @@
           <t>93</t>
         </is>
       </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>26/03/2021</t>
@@ -5232,6 +5284,7 @@
           <t>96</t>
         </is>
       </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>21/08/2022</t>
@@ -9151,369 +9204,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4305</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4311</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4315</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4328</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4333</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4341</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.53%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4353</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>7.55%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4423</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4452</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4453</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4455</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4639</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3924.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3924.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -712,7 +713,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>04/11/2012</t>
@@ -760,7 +760,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>06/11/2012</t>
@@ -808,7 +807,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>10/11/2012</t>
@@ -856,7 +854,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>12/11/2012</t>
@@ -1060,7 +1057,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>11/01/2015</t>
@@ -1160,7 +1156,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>23/01/2015</t>
@@ -1208,7 +1203,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>25/01/2015</t>
@@ -1256,7 +1250,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>31/01/2015</t>
@@ -1304,7 +1297,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>03/02/2015</t>
@@ -1352,7 +1344,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>14/02/2015</t>
@@ -1400,7 +1391,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>17/02/2015</t>
@@ -1448,7 +1438,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>20/02/2015</t>
@@ -1548,7 +1537,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>08/03/2015</t>
@@ -1596,7 +1584,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>13/03/2015</t>
@@ -1644,7 +1631,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>21/03/2015</t>
@@ -1692,7 +1678,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>24/03/2015</t>
@@ -1844,7 +1829,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>12/06/2015</t>
@@ -1892,7 +1876,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>05/01/2016</t>
@@ -1992,7 +1975,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>31/01/2016</t>
@@ -2040,7 +2022,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>03/02/2016</t>
@@ -2244,7 +2225,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>26/10/2016</t>
@@ -2500,7 +2480,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>26/12/2016</t>
@@ -2704,7 +2683,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>19/02/2017</t>
@@ -2752,7 +2730,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>22/02/2017</t>
@@ -2852,7 +2829,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>01/03/2017</t>
@@ -3056,7 +3032,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>09/06/2017</t>
@@ -3104,7 +3079,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>22/10/2017</t>
@@ -3204,7 +3178,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>29/10/2017</t>
@@ -3252,7 +3225,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>20/12/2017</t>
@@ -3300,7 +3272,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>23/12/2017</t>
@@ -3348,7 +3319,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>26/12/2017</t>
@@ -3396,7 +3366,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>06/01/2018</t>
@@ -3444,7 +3413,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>08/01/2018</t>
@@ -3544,7 +3512,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>16/01/2018</t>
@@ -3592,7 +3559,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>25/02/2018</t>
@@ -3692,7 +3658,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>03/03/2018</t>
@@ -3740,7 +3705,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>06/03/2018</t>
@@ -3944,7 +3908,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -3992,7 +3955,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>03/01/2019</t>
@@ -4040,7 +4002,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>05/01/2019</t>
@@ -4244,7 +4205,6 @@
           <t>75</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>31/01/2019</t>
@@ -4344,7 +4304,6 @@
           <t>77</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>13/02/2019</t>
@@ -4392,7 +4351,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>16/02/2019</t>
@@ -4440,7 +4398,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>20/02/2019</t>
@@ -4488,7 +4445,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -4536,7 +4492,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>05/06/2019</t>
@@ -4584,7 +4539,6 @@
           <t>82</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -4632,7 +4586,6 @@
           <t>83</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>19/06/2019</t>
@@ -4680,7 +4633,6 @@
           <t>84</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>22/06/2019</t>
@@ -4728,7 +4680,6 @@
           <t>85</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>26/06/2019</t>
@@ -5036,7 +4987,6 @@
           <t>91</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>20/03/2021</t>
@@ -5084,7 +5034,6 @@
           <t>92</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>23/03/2021</t>
@@ -5132,7 +5081,6 @@
           <t>93</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>26/03/2021</t>
@@ -5284,7 +5232,6 @@
           <t>96</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>21/08/2022</t>
@@ -9204,4 +9151,1799 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3427</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.40%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3429</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3430</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3446</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3447</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3448</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3449</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3477</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4.76%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3685</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3686</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3723</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3726</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3737</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3739</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3745</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3747</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3748</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3753</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3756</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3767</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3778</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3784</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.71%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3793</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>11</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2.07%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3794</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3796</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3804</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3805</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3872</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>11</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3879</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>11</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>4.78%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3883</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>11</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5.59%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3884</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>11</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3886</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>11</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3952</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3954</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>11</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3967</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3968</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3969</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3970</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>11</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3984</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3988</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>11</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3992</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>11</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>5.06%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3995</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3997</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3999</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4002</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4032</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>11</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.90%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4036</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>11</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>3.01%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4039</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4085</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>11</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>11</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4100</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>11</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4101</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4102</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>10</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.82%</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4103</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>11</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4104</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4105</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4110</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4137</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4138</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4139</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4146</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>11</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4149</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>11</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4223</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>11</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>7.55%</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4227</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4231</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4232</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4239</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4242</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4250</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4252</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4311</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>4452</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4453</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>